--- a/RAAL/Production/Input/GHI_2024-02-06.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-06.xlsx
@@ -59,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-06T07:42:17</t>
-  </si>
-  <si>
-    <t>2024-02-06T17:37:38</t>
+    <t>2024-02-06T07:40:27</t>
+  </si>
+  <si>
+    <t>2024-02-06T17:30:20</t>
   </si>
   <si>
     <t>hour</t>
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2707.76</v>
+        <v>2558.79</v>
       </c>
       <c r="H2">
-        <v>5928.52</v>
+        <v>5769.53</v>
       </c>
       <c r="I2">
-        <v>694.24</v>
+        <v>673.95</v>
       </c>
       <c r="J2">
-        <v>2573.02</v>
+        <v>1629.53</v>
       </c>
       <c r="K2">
-        <v>4818.72</v>
+        <v>1081.16</v>
       </c>
       <c r="L2">
-        <v>712.96</v>
+        <v>1232.61</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B3">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B4">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B5">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B6">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B7">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B8">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B9">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -869,30 +869,30 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>1.16</v>
+        <v>1.59</v>
       </c>
       <c r="I9">
-        <v>10.81</v>
+        <v>14.73</v>
       </c>
       <c r="J9">
-        <v>2.74</v>
+        <v>3.19</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B10">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -910,30 +910,30 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>76.01000000000001</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="I10">
-        <v>352.84</v>
+        <v>356.82</v>
       </c>
       <c r="J10">
-        <v>40.94</v>
+        <v>41.3</v>
       </c>
       <c r="K10">
-        <v>46.83</v>
+        <v>36.72</v>
       </c>
       <c r="L10">
-        <v>40.31</v>
+        <v>5.54</v>
       </c>
       <c r="M10">
-        <v>40.37</v>
+        <v>35.77</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B11">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -951,30 +951,30 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>214.46</v>
+        <v>210.49</v>
       </c>
       <c r="I11">
-        <v>599.8200000000001</v>
+        <v>595.58</v>
       </c>
       <c r="J11">
-        <v>67.72</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="K11">
-        <v>177.65</v>
+        <v>117.51</v>
       </c>
       <c r="L11">
-        <v>338.62</v>
+        <v>57.27</v>
       </c>
       <c r="M11">
-        <v>87.72</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B12">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -992,30 +992,30 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>337.13</v>
+        <v>327.29</v>
       </c>
       <c r="I12">
-        <v>711.28</v>
+        <v>704.21</v>
       </c>
       <c r="J12">
-        <v>82.62</v>
+        <v>81.58</v>
       </c>
       <c r="K12">
-        <v>318.63</v>
+        <v>200.92</v>
       </c>
       <c r="L12">
-        <v>610.02</v>
+        <v>120.25</v>
       </c>
       <c r="M12">
-        <v>92.8</v>
+        <v>157.17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B13">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1033,30 +1033,30 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>421.54</v>
+        <v>406.03</v>
       </c>
       <c r="I13">
-        <v>766.03</v>
+        <v>757.04</v>
       </c>
       <c r="J13">
-        <v>90.84</v>
+        <v>89.42</v>
       </c>
       <c r="K13">
-        <v>414.61</v>
+        <v>263.89</v>
       </c>
       <c r="L13">
-        <v>737.39</v>
+        <v>163.24</v>
       </c>
       <c r="M13">
-        <v>89.37</v>
+        <v>194.17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B14">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1074,30 +1074,30 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>456.87</v>
+        <v>436.54</v>
       </c>
       <c r="I14">
-        <v>785.63</v>
+        <v>774.72</v>
       </c>
       <c r="J14">
-        <v>93.94</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="K14">
-        <v>452.16</v>
+        <v>277.56</v>
       </c>
       <c r="L14">
-        <v>764.63</v>
+        <v>151.43</v>
       </c>
       <c r="M14">
-        <v>92.06999999999999</v>
+        <v>208.86</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B15">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1115,30 +1115,30 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>439.03</v>
+        <v>415.25</v>
       </c>
       <c r="I15">
-        <v>776</v>
+        <v>762.62</v>
       </c>
       <c r="J15">
-        <v>92.39</v>
+        <v>90.25</v>
       </c>
       <c r="K15">
-        <v>436.4</v>
+        <v>264.77</v>
       </c>
       <c r="L15">
-        <v>764.0700000000001</v>
+        <v>151.81</v>
       </c>
       <c r="M15">
-        <v>88.13</v>
+        <v>198.67</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B16">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1156,30 +1156,30 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>370.05</v>
+        <v>344.63</v>
       </c>
       <c r="I16">
-        <v>734.29</v>
+        <v>717.0700000000001</v>
       </c>
       <c r="J16">
-        <v>85.95</v>
+        <v>83.38</v>
       </c>
       <c r="K16">
-        <v>366.24</v>
+        <v>234.29</v>
       </c>
       <c r="L16">
-        <v>718.16</v>
+        <v>190.05</v>
       </c>
       <c r="M16">
-        <v>81.01000000000001</v>
+        <v>163.85</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B17">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1197,30 +1197,30 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>258.37</v>
+        <v>233.56</v>
       </c>
       <c r="I17">
-        <v>645.87</v>
+        <v>621.38</v>
       </c>
       <c r="J17">
-        <v>73.56</v>
+        <v>70.34</v>
       </c>
       <c r="K17">
-        <v>246.03</v>
+        <v>166.71</v>
       </c>
       <c r="L17">
-        <v>563.3</v>
+        <v>189.37</v>
       </c>
       <c r="M17">
-        <v>76.89</v>
+        <v>113.13</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B18">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1238,30 +1238,30 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>121.24</v>
+        <v>100.39</v>
       </c>
       <c r="I18">
-        <v>461.55</v>
+        <v>418</v>
       </c>
       <c r="J18">
-        <v>51.88</v>
+        <v>47.33</v>
       </c>
       <c r="K18">
-        <v>104.98</v>
+        <v>62.96</v>
       </c>
       <c r="L18">
-        <v>274.67</v>
+        <v>52.21</v>
       </c>
       <c r="M18">
-        <v>55.65</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B19">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1279,30 +1279,30 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>11.9</v>
+        <v>6.08</v>
       </c>
       <c r="I19">
-        <v>84.41</v>
+        <v>47.38</v>
       </c>
       <c r="J19">
-        <v>11.68</v>
+        <v>7.8</v>
       </c>
       <c r="K19">
-        <v>8.98</v>
+        <v>3.58</v>
       </c>
       <c r="L19">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>8.449999999999999</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B20">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B21">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B22">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B23">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B24">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B25">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>

--- a/RAAL/Production/Input/GHI_2024-02-06.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-06.xlsx
@@ -59,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-06T07:40:27</t>
-  </si>
-  <si>
-    <t>2024-02-06T17:30:20</t>
+    <t>2024-02-06T07:42:17</t>
+  </si>
+  <si>
+    <t>2024-02-06T17:37:38</t>
   </si>
   <si>
     <t>hour</t>
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2558.79</v>
+        <v>2707.88</v>
       </c>
       <c r="H2">
-        <v>5769.53</v>
+        <v>5929.04</v>
       </c>
       <c r="I2">
-        <v>673.95</v>
+        <v>694.1900000000001</v>
       </c>
       <c r="J2">
-        <v>1629.53</v>
+        <v>2542.34</v>
       </c>
       <c r="K2">
-        <v>1081.16</v>
+        <v>4705.11</v>
       </c>
       <c r="L2">
-        <v>1232.61</v>
+        <v>738.09</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B3">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B4">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B5">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B6">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B7">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B8">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B9">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -869,30 +869,30 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="I9">
-        <v>14.73</v>
+        <v>10.81</v>
       </c>
       <c r="J9">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="K9">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.62</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B10">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -910,30 +910,30 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>76.93000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="I10">
-        <v>356.82</v>
+        <v>352.91</v>
       </c>
       <c r="J10">
-        <v>41.3</v>
+        <v>40.93</v>
       </c>
       <c r="K10">
-        <v>36.72</v>
+        <v>76</v>
       </c>
       <c r="L10">
-        <v>5.54</v>
+        <v>264.93</v>
       </c>
       <c r="M10">
-        <v>35.77</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B11">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -951,30 +951,30 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>210.49</v>
+        <v>214.47</v>
       </c>
       <c r="I11">
-        <v>595.58</v>
+        <v>599.88</v>
       </c>
       <c r="J11">
-        <v>67.18000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="K11">
-        <v>117.51</v>
+        <v>214.42</v>
       </c>
       <c r="L11">
-        <v>57.27</v>
+        <v>593.86</v>
       </c>
       <c r="M11">
-        <v>102.57</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B12">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -992,30 +992,30 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>327.29</v>
+        <v>337.15</v>
       </c>
       <c r="I12">
-        <v>704.21</v>
+        <v>711.35</v>
       </c>
       <c r="J12">
-        <v>81.58</v>
+        <v>82.61</v>
       </c>
       <c r="K12">
-        <v>200.92</v>
+        <v>336.92</v>
       </c>
       <c r="L12">
-        <v>120.25</v>
+        <v>711.52</v>
       </c>
       <c r="M12">
-        <v>157.17</v>
+        <v>74.81999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B13">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1033,30 +1033,30 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>406.03</v>
+        <v>421.56</v>
       </c>
       <c r="I13">
-        <v>757.04</v>
+        <v>766.0700000000001</v>
       </c>
       <c r="J13">
-        <v>89.42</v>
+        <v>90.83</v>
       </c>
       <c r="K13">
-        <v>263.89</v>
+        <v>420.16</v>
       </c>
       <c r="L13">
-        <v>163.24</v>
+        <v>760.09</v>
       </c>
       <c r="M13">
-        <v>194.17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B14">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1074,30 +1074,30 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>436.54</v>
+        <v>456.88</v>
       </c>
       <c r="I14">
-        <v>774.72</v>
+        <v>785.65</v>
       </c>
       <c r="J14">
-        <v>92.18000000000001</v>
+        <v>93.94</v>
       </c>
       <c r="K14">
-        <v>277.56</v>
+        <v>451.96</v>
       </c>
       <c r="L14">
-        <v>151.43</v>
+        <v>763.83</v>
       </c>
       <c r="M14">
-        <v>208.86</v>
+        <v>92.26000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B15">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1115,30 +1115,30 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>415.25</v>
+        <v>439.04</v>
       </c>
       <c r="I15">
-        <v>762.62</v>
+        <v>776.04</v>
       </c>
       <c r="J15">
-        <v>90.25</v>
+        <v>92.38</v>
       </c>
       <c r="K15">
-        <v>264.77</v>
+        <v>431.82</v>
       </c>
       <c r="L15">
-        <v>151.81</v>
+        <v>745.9299999999999</v>
       </c>
       <c r="M15">
-        <v>198.67</v>
+        <v>91.81999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B16">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1156,30 +1156,30 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>344.63</v>
+        <v>370.07</v>
       </c>
       <c r="I16">
-        <v>717.0700000000001</v>
+        <v>734.34</v>
       </c>
       <c r="J16">
-        <v>83.38</v>
+        <v>85.94</v>
       </c>
       <c r="K16">
-        <v>234.29</v>
+        <v>346.31</v>
       </c>
       <c r="L16">
-        <v>190.05</v>
+        <v>606.77</v>
       </c>
       <c r="M16">
-        <v>163.85</v>
+        <v>103.34</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B17">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1197,30 +1197,30 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>233.56</v>
+        <v>258.39</v>
       </c>
       <c r="I17">
-        <v>621.38</v>
+        <v>645.9400000000001</v>
       </c>
       <c r="J17">
-        <v>70.34</v>
+        <v>73.55</v>
       </c>
       <c r="K17">
-        <v>166.71</v>
+        <v>185.99</v>
       </c>
       <c r="L17">
-        <v>189.37</v>
+        <v>213.56</v>
       </c>
       <c r="M17">
-        <v>113.13</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B18">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1238,30 +1238,30 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>100.39</v>
+        <v>121.25</v>
       </c>
       <c r="I18">
-        <v>418</v>
+        <v>461.61</v>
       </c>
       <c r="J18">
-        <v>47.33</v>
+        <v>51.88</v>
       </c>
       <c r="K18">
-        <v>62.96</v>
+        <v>71.28</v>
       </c>
       <c r="L18">
-        <v>52.21</v>
+        <v>44.62</v>
       </c>
       <c r="M18">
-        <v>54.21</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B19">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1279,30 +1279,30 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>6.08</v>
+        <v>11.9</v>
       </c>
       <c r="I19">
-        <v>47.38</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="J19">
-        <v>7.8</v>
+        <v>11.68</v>
       </c>
       <c r="K19">
-        <v>3.58</v>
+        <v>6.33</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.58</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B20">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B21">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B22">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B23">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B24">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>47.2229</v>
+        <v>46.073272</v>
       </c>
       <c r="B25">
-        <v>24.7244</v>
+        <v>23.580489</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
